--- a/data/processed/buddingtonite_ANU/calczaf_files/calczaf_oxides_summary.xlsx
+++ b/data/processed/buddingtonite_ANU/calczaf_files/calczaf_oxides_summary.xlsx
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>69.239</v>
+        <v>70.42100000000001</v>
       </c>
       <c r="C2">
-        <v>18.992</v>
+        <v>19.286</v>
       </c>
       <c r="D2">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="E2">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="F2">
-        <v>1.146</v>
+        <v>1.232</v>
       </c>
       <c r="G2">
-        <v>6.254</v>
+        <v>6.726</v>
       </c>
       <c r="H2">
-        <v>95.786</v>
+        <v>97.82299999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>69.26300000000001</v>
+        <v>70.464</v>
       </c>
       <c r="C3">
-        <v>19.001</v>
+        <v>19.3</v>
       </c>
       <c r="D3">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="E3">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="F3">
-        <v>1.177</v>
+        <v>1.266</v>
       </c>
       <c r="G3">
-        <v>6.422</v>
+        <v>6.908</v>
       </c>
       <c r="H3">
-        <v>96.018</v>
+        <v>98.096</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -519,10 +519,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>69.44199999999999</v>
+        <v>70.806</v>
       </c>
       <c r="C4">
-        <v>19.072</v>
+        <v>19.408</v>
       </c>
       <c r="D4">
         <v>0.031</v>
@@ -531,13 +531,13 @@
         <v>0.126</v>
       </c>
       <c r="F4">
-        <v>1.425</v>
+        <v>1.533</v>
       </c>
       <c r="G4">
-        <v>7.776</v>
+        <v>8.369</v>
       </c>
       <c r="H4">
-        <v>97.872</v>
+        <v>100.273</v>
       </c>
     </row>
   </sheetData>
@@ -581,25 +581,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.469</v>
+        <v>0.489</v>
       </c>
       <c r="C2">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="D2">
         <v>0.011</v>
       </c>
       <c r="E2">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="F2">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="G2">
-        <v>0.282</v>
+        <v>0.304</v>
       </c>
       <c r="H2">
-        <v>0.66</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -607,25 +607,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.47</v>
+        <v>0.487</v>
       </c>
       <c r="C3">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="D3">
         <v>0.011</v>
       </c>
       <c r="E3">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="F3">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="G3">
-        <v>0.285</v>
+        <v>0.294</v>
       </c>
       <c r="H3">
-        <v>0.664</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -633,25 +633,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.476</v>
+        <v>0.503</v>
       </c>
       <c r="C4">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="D4">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="E4">
         <v>0.033</v>
       </c>
       <c r="F4">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
       <c r="G4">
-        <v>0.343</v>
+        <v>0.354</v>
       </c>
       <c r="H4">
-        <v>0.736</v>
+        <v>0.787</v>
       </c>
     </row>
   </sheetData>
@@ -722,46 +722,46 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>18.992</v>
+        <v>19.286</v>
       </c>
       <c r="C2">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="D2">
-        <v>1.146</v>
+        <v>1.232</v>
       </c>
       <c r="E2">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="F2">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="G2">
         <v>0.011</v>
       </c>
       <c r="H2">
-        <v>6.254</v>
+        <v>6.726</v>
       </c>
       <c r="I2">
-        <v>0.282</v>
+        <v>0.304</v>
       </c>
       <c r="J2">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="K2">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="L2">
-        <v>69.239</v>
+        <v>70.42100000000001</v>
       </c>
       <c r="M2">
-        <v>0.469</v>
+        <v>0.489</v>
       </c>
       <c r="N2">
-        <v>95.786</v>
+        <v>97.82299999999999</v>
       </c>
       <c r="O2">
-        <v>0.66</v>
+        <v>0.722</v>
       </c>
       <c r="P2">
         <v>5</v>
@@ -772,46 +772,46 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>19.001</v>
+        <v>19.3</v>
       </c>
       <c r="C3">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="D3">
-        <v>1.177</v>
+        <v>1.266</v>
       </c>
       <c r="E3">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="F3">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="G3">
         <v>0.011</v>
       </c>
       <c r="H3">
-        <v>6.422</v>
+        <v>6.908</v>
       </c>
       <c r="I3">
-        <v>0.285</v>
+        <v>0.294</v>
       </c>
       <c r="J3">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="K3">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="L3">
-        <v>69.26300000000001</v>
+        <v>70.464</v>
       </c>
       <c r="M3">
-        <v>0.47</v>
+        <v>0.487</v>
       </c>
       <c r="N3">
-        <v>96.018</v>
+        <v>98.096</v>
       </c>
       <c r="O3">
-        <v>0.664</v>
+        <v>0.708</v>
       </c>
       <c r="P3">
         <v>5</v>
@@ -822,28 +822,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>19.072</v>
+        <v>19.408</v>
       </c>
       <c r="C4">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="D4">
-        <v>1.425</v>
+        <v>1.533</v>
       </c>
       <c r="E4">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
       <c r="F4">
         <v>0.031</v>
       </c>
       <c r="G4">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="H4">
-        <v>7.776</v>
+        <v>8.369</v>
       </c>
       <c r="I4">
-        <v>0.343</v>
+        <v>0.354</v>
       </c>
       <c r="J4">
         <v>0.126</v>
@@ -852,16 +852,16 @@
         <v>0.033</v>
       </c>
       <c r="L4">
-        <v>69.44199999999999</v>
+        <v>70.806</v>
       </c>
       <c r="M4">
-        <v>0.476</v>
+        <v>0.503</v>
       </c>
       <c r="N4">
-        <v>97.872</v>
+        <v>100.273</v>
       </c>
       <c r="O4">
-        <v>0.736</v>
+        <v>0.787</v>
       </c>
       <c r="P4">
         <v>5</v>

--- a/data/processed/buddingtonite_ANU/calczaf_files/calczaf_oxides_summary.xlsx
+++ b/data/processed/buddingtonite_ANU/calczaf_files/calczaf_oxides_summary.xlsx
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>70.464</v>
+        <v>70.465</v>
       </c>
       <c r="C3">
         <v>19.3</v>
@@ -508,10 +508,10 @@
         <v>1.266</v>
       </c>
       <c r="G3">
-        <v>6.908</v>
+        <v>6.912</v>
       </c>
       <c r="H3">
-        <v>98.096</v>
+        <v>98.102</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -519,10 +519,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>70.806</v>
+        <v>70.752</v>
       </c>
       <c r="C4">
-        <v>19.408</v>
+        <v>19.396</v>
       </c>
       <c r="D4">
         <v>0.031</v>
@@ -531,13 +531,13 @@
         <v>0.126</v>
       </c>
       <c r="F4">
-        <v>1.533</v>
+        <v>1.497</v>
       </c>
       <c r="G4">
-        <v>8.369</v>
+        <v>8.173</v>
       </c>
       <c r="H4">
-        <v>100.273</v>
+        <v>99.97499999999999</v>
       </c>
     </row>
   </sheetData>
@@ -607,10 +607,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="C3">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="D3">
         <v>0.011</v>
@@ -619,13 +619,13 @@
         <v>0.033</v>
       </c>
       <c r="F3">
-        <v>0.054</v>
+        <v>0.058</v>
       </c>
       <c r="G3">
-        <v>0.294</v>
+        <v>0.318</v>
       </c>
       <c r="H3">
-        <v>0.708</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -633,25 +633,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.503</v>
+        <v>0.502</v>
       </c>
       <c r="C4">
-        <v>0.122</v>
+        <v>0.129</v>
       </c>
       <c r="D4">
         <v>0.012</v>
       </c>
       <c r="E4">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="F4">
-        <v>0.065</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G4">
-        <v>0.354</v>
+        <v>0.374</v>
       </c>
       <c r="H4">
-        <v>0.787</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -775,13 +775,13 @@
         <v>19.3</v>
       </c>
       <c r="C3">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="D3">
         <v>1.266</v>
       </c>
       <c r="E3">
-        <v>0.054</v>
+        <v>0.058</v>
       </c>
       <c r="F3">
         <v>0.031</v>
@@ -790,10 +790,10 @@
         <v>0.011</v>
       </c>
       <c r="H3">
-        <v>6.908</v>
+        <v>6.912</v>
       </c>
       <c r="I3">
-        <v>0.294</v>
+        <v>0.318</v>
       </c>
       <c r="J3">
         <v>0.126</v>
@@ -802,16 +802,16 @@
         <v>0.033</v>
       </c>
       <c r="L3">
-        <v>70.464</v>
+        <v>70.465</v>
       </c>
       <c r="M3">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="N3">
-        <v>98.096</v>
+        <v>98.102</v>
       </c>
       <c r="O3">
-        <v>0.708</v>
+        <v>0.735</v>
       </c>
       <c r="P3">
         <v>5</v>
@@ -822,16 +822,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>19.408</v>
+        <v>19.396</v>
       </c>
       <c r="C4">
-        <v>0.122</v>
+        <v>0.129</v>
       </c>
       <c r="D4">
-        <v>1.533</v>
+        <v>1.497</v>
       </c>
       <c r="E4">
-        <v>0.065</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="F4">
         <v>0.031</v>
@@ -840,28 +840,28 @@
         <v>0.012</v>
       </c>
       <c r="H4">
-        <v>8.369</v>
+        <v>8.173</v>
       </c>
       <c r="I4">
-        <v>0.354</v>
+        <v>0.374</v>
       </c>
       <c r="J4">
         <v>0.126</v>
       </c>
       <c r="K4">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="L4">
-        <v>70.806</v>
+        <v>70.752</v>
       </c>
       <c r="M4">
-        <v>0.503</v>
+        <v>0.502</v>
       </c>
       <c r="N4">
-        <v>100.273</v>
+        <v>99.97499999999999</v>
       </c>
       <c r="O4">
-        <v>0.787</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="P4">
         <v>5</v>
